--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/题库导入模板.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/题库导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Magicodes.ExporterAndImporter\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D827EAB5-55C3-4C42-AF3D-2E0BB25E23A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E854DA-B042-4A69-BD8F-F98E4824DC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="2214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="2218">
   <si>
     <t>题干</t>
   </si>
@@ -8032,12 +8032,26 @@
     <t>干扰列</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>对</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>错</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -8114,6 +8128,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -8155,7 +8175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8204,6 +8224,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8521,8 +8544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8624,6 +8647,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
+      <c r="N2" s="14" t="s">
+        <v>2214</v>
+      </c>
       <c r="O2" s="8" t="s">
         <v>422</v>
       </c>
@@ -8664,6 +8690,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
+      <c r="N3" s="14" t="s">
+        <v>2215</v>
+      </c>
       <c r="O3" s="8" t="s">
         <v>423</v>
       </c>
@@ -8704,6 +8733,9 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
+      <c r="N4" s="17" t="s">
+        <v>2216</v>
+      </c>
       <c r="O4" s="8" t="s">
         <v>424</v>
       </c>
@@ -8744,6 +8776,9 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
+      <c r="N5" s="17" t="s">
+        <v>2217</v>
+      </c>
       <c r="O5" s="8" t="s">
         <v>425</v>
       </c>
